--- a/data/trans_orig/P5706-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P5706-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>307878</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>285359</v>
+        <v>286010</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>331799</v>
+        <v>333431</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5270605010476545</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.488510546326496</v>
+        <v>0.4896257723039701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5680112810438191</v>
+        <v>0.5708062863557891</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>496</v>
@@ -765,19 +765,19 @@
         <v>508905</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>476555</v>
+        <v>475420</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>537902</v>
+        <v>540331</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5517584920155387</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5166843738996798</v>
+        <v>0.5154535700457319</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5831970727516553</v>
+        <v>0.5858307492675294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>792</v>
@@ -786,19 +786,19 @@
         <v>816783</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>776257</v>
+        <v>777945</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>853682</v>
+        <v>853690</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5421817492226668</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5152807669440185</v>
+        <v>0.5164010391592663</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5666758307496114</v>
+        <v>0.5666809925596921</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>145491</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>124339</v>
+        <v>125691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>166659</v>
+        <v>166958</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2490681975656251</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2128573219187885</v>
+        <v>0.21517259413083</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2853061139344464</v>
+        <v>0.2858179909495482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>180</v>
@@ -836,19 +836,19 @@
         <v>190777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166603</v>
+        <v>167483</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>216968</v>
+        <v>220754</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2068419527265738</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1806324094201934</v>
+        <v>0.1815865235325385</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2352386181339846</v>
+        <v>0.239342862420678</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>327</v>
@@ -857,19 +857,19 @@
         <v>336268</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>305667</v>
+        <v>302681</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>370582</v>
+        <v>368727</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2232153446538069</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2029021952642976</v>
+        <v>0.2009202237233386</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2459926597882601</v>
+        <v>0.2447613271957577</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>91814</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75315</v>
+        <v>76318</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>109163</v>
+        <v>112554</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1571769582815329</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1289335680864427</v>
+        <v>0.1306497243584347</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1868785882290962</v>
+        <v>0.1926833116080289</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>133</v>
@@ -907,19 +907,19 @@
         <v>141234</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>121470</v>
+        <v>121325</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>165370</v>
+        <v>166092</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1531272322587643</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1316987324253629</v>
+        <v>0.1315417053473066</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1792949214657701</v>
+        <v>0.180078036898916</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>225</v>
@@ -928,19 +928,19 @@
         <v>233048</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>205016</v>
+        <v>207184</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>260777</v>
+        <v>260402</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1546975293955673</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1360902520455293</v>
+        <v>0.1375290676364055</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1731039238575771</v>
+        <v>0.1728555360146823</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>30390</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20865</v>
+        <v>21183</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43192</v>
+        <v>42357</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05202438793313467</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03571971118447596</v>
+        <v>0.03626339499888156</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07394051997372851</v>
+        <v>0.07251108141154398</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -978,19 +978,19 @@
         <v>62486</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47290</v>
+        <v>49437</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80097</v>
+        <v>80198</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06774750439592805</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05127217364486472</v>
+        <v>0.05359982654650484</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08684199940490524</v>
+        <v>0.08695151945079624</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -999,19 +999,19 @@
         <v>92875</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75453</v>
+        <v>75280</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112116</v>
+        <v>112463</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06165080436626401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05008574925912593</v>
+        <v>0.0499708488141962</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0744230565742862</v>
+        <v>0.0746531643970913</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>8569</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4251</v>
+        <v>3868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16820</v>
+        <v>16176</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01466995517205272</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007277351236693797</v>
+        <v>0.006621127007775326</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02879526324822941</v>
+        <v>0.02769157411351833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -1049,19 +1049,19 @@
         <v>18931</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11189</v>
+        <v>11808</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29723</v>
+        <v>29987</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02052481860319513</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01213150208213658</v>
+        <v>0.01280196149244683</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03222587437975259</v>
+        <v>0.03251219944771806</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -1070,19 +1070,19 @@
         <v>27500</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18118</v>
+        <v>17892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40758</v>
+        <v>39982</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01825457236169504</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01202686367468691</v>
+        <v>0.01187665179019827</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02705503706265539</v>
+        <v>0.02654012454842161</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>606205</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>574033</v>
+        <v>574107</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>642689</v>
+        <v>639049</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5623972244624952</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5325503564343614</v>
+        <v>0.5326193401213419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5962452931192223</v>
+        <v>0.5928685870865705</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>551</v>
@@ -1195,19 +1195,19 @@
         <v>565282</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>532396</v>
+        <v>531401</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>596374</v>
+        <v>596791</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.534526698226644</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5034297201045999</v>
+        <v>0.5024885901878944</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5639263090172969</v>
+        <v>0.5643211419946328</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1140</v>
@@ -1216,19 +1216,19 @@
         <v>1171487</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1124534</v>
+        <v>1125698</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1221362</v>
+        <v>1219831</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5485947993939073</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.526607042998143</v>
+        <v>0.5271521482722595</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5719505478650284</v>
+        <v>0.5712336189054396</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>318507</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289891</v>
+        <v>286295</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>348588</v>
+        <v>347044</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2954904217133602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2689420698005106</v>
+        <v>0.2656062911289404</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3233970884566686</v>
+        <v>0.3219646742827873</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>303</v>
@@ -1266,19 +1266,19 @@
         <v>309351</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>279337</v>
+        <v>280653</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>338403</v>
+        <v>340351</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2925197002217101</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2641389160956076</v>
+        <v>0.2653836281755685</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3199914543906928</v>
+        <v>0.3218329830988392</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>617</v>
@@ -1287,19 +1287,19 @@
         <v>627858</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>584283</v>
+        <v>582980</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>670651</v>
+        <v>669167</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.294019220185224</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2736136842084246</v>
+        <v>0.2730034555905363</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3140586701160872</v>
+        <v>0.3133639143742055</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>121361</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>102443</v>
+        <v>99593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>143501</v>
+        <v>142408</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1125904173345162</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09504035377262779</v>
+        <v>0.09239589041108766</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1331306810978596</v>
+        <v>0.1321170102763172</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>137</v>
@@ -1337,19 +1337,19 @@
         <v>143407</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>122067</v>
+        <v>122343</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>164922</v>
+        <v>168612</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1356050186240502</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1154256977741965</v>
+        <v>0.1156865984706637</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1559491524697857</v>
+        <v>0.1594381751731555</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>260</v>
@@ -1358,19 +1358,19 @@
         <v>264768</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>235660</v>
+        <v>234884</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>297341</v>
+        <v>294862</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1239880245089943</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1103569561795078</v>
+        <v>0.109993787034374</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1392414773419918</v>
+        <v>0.138080803712776</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>26602</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17382</v>
+        <v>17326</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38941</v>
+        <v>39184</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02467979957841132</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01612592094637517</v>
+        <v>0.0160736072774702</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.036127144759421</v>
+        <v>0.03635281788352342</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -1408,19 +1408,19 @@
         <v>31199</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21976</v>
+        <v>21356</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44359</v>
+        <v>44206</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02950190279909684</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02078059972888508</v>
+        <v>0.02019385632324601</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04194508331548896</v>
+        <v>0.04180070959366179</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -1429,19 +1429,19 @@
         <v>57802</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44167</v>
+        <v>44381</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74300</v>
+        <v>73502</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02706786781269148</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02068301825293184</v>
+        <v>0.0207830183562913</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03479373804043923</v>
+        <v>0.03442031784026631</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>5219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1780</v>
+        <v>1792</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11265</v>
+        <v>12898</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004842136911217023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001651084083318333</v>
+        <v>0.001662920908510541</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01045097002095351</v>
+        <v>0.01196578285392281</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1479,19 +1479,19 @@
         <v>8298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3997</v>
+        <v>4044</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15509</v>
+        <v>16235</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007846680128498859</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003779556771320306</v>
+        <v>0.003824416773829599</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01466506433321902</v>
+        <v>0.01535213863660119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -1500,19 +1500,19 @@
         <v>13517</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7680</v>
+        <v>7074</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22729</v>
+        <v>22405</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006330088099182809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003596396904763388</v>
+        <v>0.003312699731732031</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01064371889010259</v>
+        <v>0.01049219427512141</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>647515</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>613041</v>
+        <v>613850</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>678860</v>
+        <v>679891</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5773165855146056</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.546580001256817</v>
+        <v>0.5473018430719122</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6052635149068114</v>
+        <v>0.6061827057482363</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>498</v>
@@ -1625,19 +1625,19 @@
         <v>503314</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>466404</v>
+        <v>470574</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>532581</v>
+        <v>536170</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5063829215392068</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4692480092021992</v>
+        <v>0.4734429144347476</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5358285718628847</v>
+        <v>0.5394393362147976</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1132</v>
@@ -1646,19 +1646,19 @@
         <v>1150829</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1103519</v>
+        <v>1105936</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1192301</v>
+        <v>1198914</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5439898784422277</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5216265301679558</v>
+        <v>0.522769419417031</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5635932901275731</v>
+        <v>0.5667190897303533</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>322443</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>294648</v>
+        <v>292114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>351876</v>
+        <v>358214</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2874867191954253</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2627048688564878</v>
+        <v>0.2604451634997628</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3137282203591538</v>
+        <v>0.3193794866781718</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>335</v>
@@ -1696,19 +1696,19 @@
         <v>334761</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>307280</v>
+        <v>305003</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>365176</v>
+        <v>364622</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3368025190096378</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3091533354187296</v>
+        <v>0.3068622282840544</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3674027648372219</v>
+        <v>0.3668448737071736</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>657</v>
@@ -1717,19 +1717,19 @@
         <v>657205</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>617082</v>
+        <v>612528</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>704055</v>
+        <v>698507</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3106567222988643</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2916909988443859</v>
+        <v>0.2895383067993783</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3328024507271161</v>
+        <v>0.3301801942075731</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>113448</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>95568</v>
+        <v>95112</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>135468</v>
+        <v>135527</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1011490861028852</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08520704501272643</v>
+        <v>0.08480087790011449</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.120781703168202</v>
+        <v>0.1208346110164763</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>120</v>
@@ -1767,19 +1767,19 @@
         <v>124260</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>103226</v>
+        <v>103644</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>146786</v>
+        <v>147581</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1250175684458288</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1038554863997285</v>
+        <v>0.1042757394571333</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.147680503510117</v>
+        <v>0.1484806328740657</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>231</v>
@@ -1788,19 +1788,19 @@
         <v>237708</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>209988</v>
+        <v>210488</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>268845</v>
+        <v>266118</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1123631962266959</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09925991239147067</v>
+        <v>0.09949619560176907</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1270813162093867</v>
+        <v>0.1257921911248076</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>30066</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19895</v>
+        <v>21078</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43111</v>
+        <v>44443</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02680628220461482</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01773793025905988</v>
+        <v>0.01879302825388566</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03843770057157715</v>
+        <v>0.03962463386796132</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -1838,19 +1838,19 @@
         <v>28669</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19137</v>
+        <v>19028</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41325</v>
+        <v>42021</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02884398642826748</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01925417830938149</v>
+        <v>0.01914397321903159</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04157717498382726</v>
+        <v>0.04227683497429743</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -1859,19 +1859,19 @@
         <v>58735</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45091</v>
+        <v>44236</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78057</v>
+        <v>75640</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02776365516345947</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02131441810487952</v>
+        <v>0.02091014261296405</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03689722533423739</v>
+        <v>0.03575470452416431</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>8122</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3455</v>
+        <v>3600</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16292</v>
+        <v>17190</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007241326982468974</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003080636600450942</v>
+        <v>0.00321008207339627</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01452606234903681</v>
+        <v>0.01532626436174522</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1909,19 +1909,19 @@
         <v>2935</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8024</v>
+        <v>7892</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002953004577059167</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0009539042014244646</v>
+        <v>0.0009504421150958465</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008073075149180077</v>
+        <v>0.00793973644454873</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1930,19 +1930,19 @@
         <v>11057</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5461</v>
+        <v>5623</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20222</v>
+        <v>20574</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005226547868752619</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002581162275815676</v>
+        <v>0.002658187784233423</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.009559041221255848</v>
+        <v>0.00972513895817804</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>254255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>231982</v>
+        <v>233273</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>275731</v>
+        <v>275403</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5685480186063271</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.51874412694214</v>
+        <v>0.5216303376759597</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6165715755700512</v>
+        <v>0.6158375573332261</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>202</v>
@@ -2055,19 +2055,19 @@
         <v>201155</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>182668</v>
+        <v>182867</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>218003</v>
+        <v>220626</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5896235033669674</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5354344985682655</v>
+        <v>0.5360197237023714</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6390076859339812</v>
+        <v>0.6466978434963323</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>450</v>
@@ -2076,19 +2076,19 @@
         <v>455409</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>426952</v>
+        <v>426135</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>482479</v>
+        <v>485039</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5776683360315663</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5415707024725886</v>
+        <v>0.5405348544205542</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6120043572015429</v>
+        <v>0.6152526528078403</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>126359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>108136</v>
+        <v>107496</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>147027</v>
+        <v>146479</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2825552892426161</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2418059089407469</v>
+        <v>0.2403767761197953</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.328773279891618</v>
+        <v>0.3275470644085973</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>103</v>
@@ -2126,19 +2126,19 @@
         <v>103032</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>87672</v>
+        <v>86445</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>121618</v>
+        <v>119356</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3020067404354828</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2569841140475893</v>
+        <v>0.2533856635057059</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3564871470208769</v>
+        <v>0.3498551687884047</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>228</v>
@@ -2147,19 +2147,19 @@
         <v>229391</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>204756</v>
+        <v>200299</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>258311</v>
+        <v>256797</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2909728137396945</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2597249520383791</v>
+        <v>0.2540710390296687</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.327657153752772</v>
+        <v>0.3257367429016804</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>49625</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37495</v>
+        <v>37390</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66580</v>
+        <v>63838</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1109679903559239</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08384318048818684</v>
+        <v>0.0836080520791025</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1488813672189497</v>
+        <v>0.1427509842879615</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>27</v>
@@ -2197,19 +2197,19 @@
         <v>28297</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18513</v>
+        <v>18768</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39167</v>
+        <v>40173</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08294284755346093</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05426621837911956</v>
+        <v>0.0550123201300215</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1148058644656865</v>
+        <v>0.1177543289334484</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>74</v>
@@ -2218,19 +2218,19 @@
         <v>77921</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>62185</v>
+        <v>63669</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96354</v>
+        <v>97730</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09884024092814017</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07887964081944437</v>
+        <v>0.08076128759606975</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1222209118943995</v>
+        <v>0.1239659897008106</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>13468</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7008</v>
+        <v>7346</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23162</v>
+        <v>23775</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03011718881807962</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01567131175629388</v>
+        <v>0.01642712227881864</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05179248910150046</v>
+        <v>0.05316414479140216</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2268,19 +2268,19 @@
         <v>8675</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3422</v>
+        <v>3559</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16966</v>
+        <v>17675</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02542690864408883</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0100312588360148</v>
+        <v>0.01043081658599341</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04973074532198003</v>
+        <v>0.05180823578756442</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -2289,19 +2289,19 @@
         <v>22143</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13942</v>
+        <v>13148</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34419</v>
+        <v>35018</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02808749201698917</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01768491507917637</v>
+        <v>0.0166772560816701</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04365920361006074</v>
+        <v>0.04441918125956956</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>3493</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10413</v>
+        <v>9776</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007811512977053229</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001891488005378171</v>
+        <v>0.001899386840908771</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02328546100989251</v>
+        <v>0.0218612475721072</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2352,19 +2352,19 @@
         <v>3493</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10507</v>
+        <v>9379</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004431117283609813</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001070375221012363</v>
+        <v>0.001077094172989015</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01332816982946919</v>
+        <v>0.01189659119979937</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>1815852</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1758139</v>
+        <v>1752188</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1863934</v>
+        <v>1867728</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5620389453746546</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5441758873959663</v>
+        <v>0.5423339770175541</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5769212836633666</v>
+        <v>0.5780954806774043</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1747</v>
@@ -2477,19 +2477,19 @@
         <v>1778656</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1720931</v>
+        <v>1722063</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1839991</v>
+        <v>1839828</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5365529489224398</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5191393684292627</v>
+        <v>0.5194808111572634</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5550552501934507</v>
+        <v>0.5550061597202998</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3514</v>
@@ -2498,19 +2498,19 @@
         <v>3594508</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3510979</v>
+        <v>3516470</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3671110</v>
+        <v>3680114</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5491321489677097</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5363713804118502</v>
+        <v>0.5372103035412771</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5608346204353529</v>
+        <v>0.5622101911173966</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>912800</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>859193</v>
+        <v>861737</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>959766</v>
+        <v>964726</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2825282273349466</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2659358871377305</v>
+        <v>0.2667231356597787</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2970650439420384</v>
+        <v>0.2986001922167294</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>921</v>
@@ -2548,19 +2548,19 @@
         <v>937921</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>887691</v>
+        <v>888789</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>988757</v>
+        <v>989579</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2829351782670242</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2677824977914214</v>
+        <v>0.2681137353345037</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2982703088308013</v>
+        <v>0.2985183975218047</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1829</v>
@@ -2569,19 +2569,19 @@
         <v>1850722</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1774738</v>
+        <v>1772136</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1930357</v>
+        <v>1916739</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2827343182695424</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2711262842301498</v>
+        <v>0.2707288533077611</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2949001881314254</v>
+        <v>0.2928197550682137</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>376247</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>340738</v>
+        <v>337590</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>411054</v>
+        <v>414934</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1164552958640866</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1054645917896476</v>
+        <v>0.1044901324628766</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1272286939259222</v>
+        <v>0.128429673359644</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>417</v>
@@ -2619,19 +2619,19 @@
         <v>437198</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>394350</v>
+        <v>399047</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>475388</v>
+        <v>477673</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.131886101123408</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1189604716093147</v>
+        <v>0.120377302968559</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1434064885813371</v>
+        <v>0.1440956228271124</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>790</v>
@@ -2640,19 +2640,19 @@
         <v>813445</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>758341</v>
+        <v>756153</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>868943</v>
+        <v>869187</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1242698720863935</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1158515205393439</v>
+        <v>0.1155172682883878</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1327481799601001</v>
+        <v>0.1327854727972751</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>100526</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>80900</v>
+        <v>80176</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>120995</v>
+        <v>122007</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0311146042947369</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02504009765021619</v>
+        <v>0.02481602355659152</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03745002178195071</v>
+        <v>0.03776349217718882</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>121</v>
@@ -2690,19 +2690,19 @@
         <v>131029</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>107458</v>
+        <v>109603</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>154649</v>
+        <v>154579</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03952644324759595</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03241591411605408</v>
+        <v>0.0330632008886317</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04665184968442029</v>
+        <v>0.04663062961590269</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>218</v>
@@ -2711,19 +2711,19 @@
         <v>231555</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>203150</v>
+        <v>204814</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>264749</v>
+        <v>265733</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03537458655503911</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03103516425258295</v>
+        <v>0.03128939673687622</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04044560748107302</v>
+        <v>0.04059594642797634</v>
       </c>
     </row>
     <row r="32">
@@ -2740,19 +2740,19 @@
         <v>25404</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16956</v>
+        <v>16265</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38355</v>
+        <v>38971</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007862927131575331</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.005248178362326804</v>
+        <v>0.005034238073235952</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01187159961525532</v>
+        <v>0.01206220070519379</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -2761,19 +2761,19 @@
         <v>30164</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19257</v>
+        <v>20119</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>41751</v>
+        <v>42710</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009099328439532038</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005809252943313788</v>
+        <v>0.006069236451529405</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01259477678256166</v>
+        <v>0.01288409146902025</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>51</v>
@@ -2782,19 +2782,19 @@
         <v>55568</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>42109</v>
+        <v>42727</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>72315</v>
+        <v>72544</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00848907412131529</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006433030416150437</v>
+        <v>0.006527423348865106</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0110474722886401</v>
+        <v>0.01108246451821839</v>
       </c>
     </row>
     <row r="33">
@@ -3126,19 +3126,19 @@
         <v>591729</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>560541</v>
+        <v>560591</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>625183</v>
+        <v>624836</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5690574235009167</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5390648319529531</v>
+        <v>0.5391129908401827</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6012302529412926</v>
+        <v>0.6008958990521184</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>527</v>
@@ -3147,19 +3147,19 @@
         <v>572661</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>537377</v>
+        <v>536716</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>605062</v>
+        <v>604912</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5118400380704189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4803028457487834</v>
+        <v>0.4797121060550188</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5407990815442349</v>
+        <v>0.5406649123978045</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1084</v>
@@ -3168,19 +3168,19 @@
         <v>1164390</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1120689</v>
+        <v>1114878</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1216850</v>
+        <v>1206700</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.53940189466419</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5191578670420838</v>
+        <v>0.5164655557582538</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5637043211585513</v>
+        <v>0.559002104502426</v>
       </c>
     </row>
     <row r="5">
@@ -3197,19 +3197,19 @@
         <v>277569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>246254</v>
+        <v>248763</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>306746</v>
+        <v>303351</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2669346230029087</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2368189014140155</v>
+        <v>0.2392319186730294</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.29499325653134</v>
+        <v>0.2917289773758008</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>325</v>
@@ -3218,19 +3218,19 @@
         <v>352217</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>319626</v>
+        <v>320341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>382701</v>
+        <v>383726</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3148090417806084</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2856792258387197</v>
+        <v>0.2863183994557003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3420547285716316</v>
+        <v>0.3429711700109351</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>584</v>
@@ -3239,19 +3239,19 @@
         <v>629786</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>588338</v>
+        <v>590034</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>675365</v>
+        <v>675503</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2917477317446245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2725467929795571</v>
+        <v>0.2733326673248271</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3128617010389309</v>
+        <v>0.3129257861751583</v>
       </c>
     </row>
     <row r="6">
@@ -3268,19 +3268,19 @@
         <v>119953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>99949</v>
+        <v>100574</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>142039</v>
+        <v>143557</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1153575499333505</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09611994595192207</v>
+        <v>0.09672093244787336</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1365972446659203</v>
+        <v>0.1380570697602177</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>135</v>
@@ -3289,19 +3289,19 @@
         <v>144751</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>122464</v>
+        <v>121443</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>168505</v>
+        <v>169535</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1293773109565336</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1094572009897772</v>
+        <v>0.1085446294507936</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1506082925886975</v>
+        <v>0.1515285371022967</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>247</v>
@@ -3310,19 +3310,19 @@
         <v>264704</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>234121</v>
+        <v>236774</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>297675</v>
+        <v>294809</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1226239327674989</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1084563404899776</v>
+        <v>0.10968534704644</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1378976460885181</v>
+        <v>0.1365700655339352</v>
       </c>
     </row>
     <row r="7">
@@ -3339,19 +3339,19 @@
         <v>39380</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27992</v>
+        <v>28272</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53709</v>
+        <v>54313</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03787127837051182</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02691937245332126</v>
+        <v>0.02718840044495931</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05165154781290073</v>
+        <v>0.0522324193795534</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -3360,19 +3360,19 @@
         <v>30618</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21206</v>
+        <v>21199</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44836</v>
+        <v>45071</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02736601037602875</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01895397921683038</v>
+        <v>0.01894788973973322</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04007379550162542</v>
+        <v>0.04028376644928947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -3381,19 +3381,19 @@
         <v>69998</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53766</v>
+        <v>53765</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>87993</v>
+        <v>87907</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03242644240668815</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02490704845847909</v>
+        <v>0.02490649794929064</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04076275892563068</v>
+        <v>0.04072267034265935</v>
       </c>
     </row>
     <row r="8">
@@ -3410,19 +3410,19 @@
         <v>11209</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5265</v>
+        <v>5362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20272</v>
+        <v>20401</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0107791251923123</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005063258410682121</v>
+        <v>0.00515686539172342</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01949534422229931</v>
+        <v>0.0196189086667465</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -3431,19 +3431,19 @@
         <v>18581</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10627</v>
+        <v>10709</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29261</v>
+        <v>28913</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01660759881641038</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009498066433346585</v>
+        <v>0.009572013790057005</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02615345133693191</v>
+        <v>0.02584224430595227</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -3452,19 +3452,19 @@
         <v>29790</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19701</v>
+        <v>20029</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44028</v>
+        <v>43873</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01379999841699851</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009126351521700852</v>
+        <v>0.009278344433455817</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02039601718750611</v>
+        <v>0.02032411924743938</v>
       </c>
     </row>
     <row r="9">
@@ -3556,19 +3556,19 @@
         <v>594944</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>555354</v>
+        <v>565600</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>623932</v>
+        <v>627253</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6095166398389716</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5689571542458156</v>
+        <v>0.5794545688792293</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6392148021767108</v>
+        <v>0.6426172555152899</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>572</v>
@@ -3577,19 +3577,19 @@
         <v>610933</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>576200</v>
+        <v>575330</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>646015</v>
+        <v>644727</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5588571183930982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5270850447083728</v>
+        <v>0.5262895911484169</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5909494291990882</v>
+        <v>0.5897706335442985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1138</v>
@@ -3598,19 +3598,19 @@
         <v>1205876</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1165909</v>
+        <v>1154775</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1254321</v>
+        <v>1247247</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5827535763550317</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5634387392621178</v>
+        <v>0.5580585491407615</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6061649770917698</v>
+        <v>0.6027465050870938</v>
       </c>
     </row>
     <row r="11">
@@ -3627,19 +3627,19 @@
         <v>274063</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>248013</v>
+        <v>245357</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>306848</v>
+        <v>307067</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2807758361596372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2540879649151448</v>
+        <v>0.2513669311707915</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3143642517757577</v>
+        <v>0.3145888727121262</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -3648,19 +3648,19 @@
         <v>347509</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>317411</v>
+        <v>314244</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>380649</v>
+        <v>379297</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3178880157883211</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2903551957032393</v>
+        <v>0.2874577998464879</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3482028536549366</v>
+        <v>0.3469661952203709</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>581</v>
@@ -3669,19 +3669,19 @@
         <v>621572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>581511</v>
+        <v>583127</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>664869</v>
+        <v>667394</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3003819356860818</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2810218635858255</v>
+        <v>0.2818027919881437</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3213054819852489</v>
+        <v>0.3225256273252649</v>
       </c>
     </row>
     <row r="12">
@@ -3698,19 +3698,19 @@
         <v>88499</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71149</v>
+        <v>72519</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>107914</v>
+        <v>106970</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09066708493942015</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07289210839832735</v>
+        <v>0.07429527698942989</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1105570072027897</v>
+        <v>0.1095905739967209</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -3719,19 +3719,19 @@
         <v>95925</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>76036</v>
+        <v>77213</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116325</v>
+        <v>115593</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08774806509376716</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06955450683069218</v>
+        <v>0.07063175918117115</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.106409943416343</v>
+        <v>0.1057403390794008</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>173</v>
@@ -3740,19 +3740,19 @@
         <v>184424</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>158844</v>
+        <v>157539</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>214568</v>
+        <v>211540</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08912498759601038</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07676315408278986</v>
+        <v>0.07613241385742599</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1036923060495487</v>
+        <v>0.1022291910801354</v>
       </c>
     </row>
     <row r="13">
@@ -3769,19 +3769,19 @@
         <v>13328</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6995</v>
+        <v>7542</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21766</v>
+        <v>22817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01365449098770274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007165973274082686</v>
+        <v>0.00772648957641414</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02229883275871998</v>
+        <v>0.02337600417795813</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -3790,19 +3790,19 @@
         <v>30822</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21039</v>
+        <v>20466</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44867</v>
+        <v>44318</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0281948213845039</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01924533598033092</v>
+        <v>0.01872191183841761</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04104224724505472</v>
+        <v>0.04054008539443212</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -3811,19 +3811,19 @@
         <v>44150</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32231</v>
+        <v>31659</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59860</v>
+        <v>58443</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02133604372212458</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01557619323633074</v>
+        <v>0.0152994395778141</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02892815621676162</v>
+        <v>0.02824342662132016</v>
       </c>
     </row>
     <row r="14">
@@ -3840,19 +3840,19 @@
         <v>5257</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15172</v>
+        <v>15906</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00538594807426829</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00107571199299479</v>
+        <v>0.001079140347036054</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01554368837283317</v>
+        <v>0.01629528836059247</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -3861,19 +3861,19 @@
         <v>7993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3218</v>
+        <v>3111</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16800</v>
+        <v>16778</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007311979340309676</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002943914673706374</v>
+        <v>0.002845401404506654</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01536807778293194</v>
+        <v>0.01534802383821254</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -3882,19 +3882,19 @@
         <v>13250</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6118</v>
+        <v>6391</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24762</v>
+        <v>26337</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006403456640751553</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002956522147044486</v>
+        <v>0.003088631710153966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01196649404494375</v>
+        <v>0.01272774322063977</v>
       </c>
     </row>
     <row r="15">
@@ -3986,19 +3986,19 @@
         <v>532733</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>504250</v>
+        <v>499720</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>566142</v>
+        <v>558808</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6018803331036323</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5696994793177808</v>
+        <v>0.5645824777499586</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6396254451883243</v>
+        <v>0.6313392227051862</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>481</v>
@@ -4007,19 +4007,19 @@
         <v>513987</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>482363</v>
+        <v>483885</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>541779</v>
+        <v>544747</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5868796847794262</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5507706453339142</v>
+        <v>0.5525082492110023</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6186131969266984</v>
+        <v>0.6220025399089316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>983</v>
@@ -4028,19 +4028,19 @@
         <v>1046720</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1000545</v>
+        <v>1004538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1083772</v>
+        <v>1088965</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5944197031515355</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.568197612210671</v>
+        <v>0.570464704796033</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.615460877040151</v>
+        <v>0.6184099917888554</v>
       </c>
     </row>
     <row r="17">
@@ -4057,19 +4057,19 @@
         <v>264252</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>233559</v>
+        <v>237809</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>293427</v>
+        <v>295677</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2985508722824766</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2638736679658705</v>
+        <v>0.2686754605616261</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3315127719547481</v>
+        <v>0.3340551359439706</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>256</v>
@@ -4078,19 +4078,19 @@
         <v>271809</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>244246</v>
+        <v>245189</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>298530</v>
+        <v>299979</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.310356571237813</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2788842139161754</v>
+        <v>0.2799611864532381</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.340867525670104</v>
+        <v>0.3425215556074362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>499</v>
@@ -4099,19 +4099,19 @@
         <v>536061</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>500195</v>
+        <v>495573</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>580013</v>
+        <v>574814</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3044224819174743</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2840545316158488</v>
+        <v>0.2814298597365756</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3293826141003133</v>
+        <v>0.3264296438620976</v>
       </c>
     </row>
     <row r="18">
@@ -4128,19 +4128,19 @@
         <v>75739</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59114</v>
+        <v>60924</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93177</v>
+        <v>95196</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08556932572874412</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06678734876471502</v>
+        <v>0.06883223420088859</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1052712613431047</v>
+        <v>0.1075520092279588</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>73</v>
@@ -4149,19 +4149,19 @@
         <v>78027</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>62001</v>
+        <v>61485</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>96177</v>
+        <v>98164</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08909305068205087</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07079441456153224</v>
+        <v>0.07020449721503405</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1098169120721208</v>
+        <v>0.1120856411767995</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>147</v>
@@ -4170,19 +4170,19 @@
         <v>153766</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>131829</v>
+        <v>130335</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>179679</v>
+        <v>179716</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.08732186384319142</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07486409502214277</v>
+        <v>0.07401559142429572</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1020375962646337</v>
+        <v>0.1020585537572024</v>
       </c>
     </row>
     <row r="19">
@@ -4199,19 +4199,19 @@
         <v>9332</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4929</v>
+        <v>4889</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17837</v>
+        <v>16689</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01054293891943501</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005568676817535884</v>
+        <v>0.005523024707634439</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02015189074341518</v>
+        <v>0.0188553079729505</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -4220,19 +4220,19 @@
         <v>9896</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4940</v>
+        <v>4742</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18443</v>
+        <v>19077</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01129914930307671</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005640927916902866</v>
+        <v>0.005414632672349747</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02105829612088421</v>
+        <v>0.02178269471114706</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -4241,19 +4241,19 @@
         <v>19227</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11425</v>
+        <v>11554</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29872</v>
+        <v>29573</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01091904305282636</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006487901316135081</v>
+        <v>0.006561214583559181</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01696415564093926</v>
+        <v>0.01679436888402798</v>
       </c>
     </row>
     <row r="20">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10436</v>
+        <v>12778</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003456529965711985</v>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01179048105474872</v>
+        <v>0.01443674444939855</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6373</v>
+        <v>7269</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.002371543997633249</v>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.007276579904219745</v>
+        <v>0.008299319976790976</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -4312,19 +4312,19 @@
         <v>5136</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13962</v>
+        <v>13194</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002916908034972443</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0006251681718466675</v>
+        <v>0.0006212515973424496</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007928761306260449</v>
+        <v>0.007492631140547012</v>
       </c>
     </row>
     <row r="21">
@@ -4416,19 +4416,19 @@
         <v>326410</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>302721</v>
+        <v>301269</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>348616</v>
+        <v>347591</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.653187960380371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6057832862883361</v>
+        <v>0.6028764602879076</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6976233267371795</v>
+        <v>0.6955727793594908</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>275</v>
@@ -4437,19 +4437,19 @@
         <v>301290</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>278793</v>
+        <v>280325</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>321545</v>
+        <v>321062</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6695845429634758</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6195874305570226</v>
+        <v>0.622993923858163</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7145999589344877</v>
+        <v>0.7135273466284625</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>573</v>
@@ -4458,19 +4458,19 @@
         <v>627701</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>595943</v>
+        <v>597163</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>659592</v>
+        <v>659230</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.660956744508862</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6275169500002946</v>
+        <v>0.6288016412353672</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6945373943196091</v>
+        <v>0.6941560464286515</v>
       </c>
     </row>
     <row r="23">
@@ -4487,19 +4487,19 @@
         <v>121829</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>103452</v>
+        <v>103323</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142038</v>
+        <v>144600</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2437948460013071</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2070193997257428</v>
+        <v>0.2067620680176378</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2842362522004599</v>
+        <v>0.2893618040270926</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>96</v>
@@ -4508,19 +4508,19 @@
         <v>105431</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>87696</v>
+        <v>88072</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>124760</v>
+        <v>123921</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2343099047908593</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1948944802439549</v>
+        <v>0.1957316524100609</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.277266368841726</v>
+        <v>0.2754004440580554</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>209</v>
@@ -4529,19 +4529,19 @@
         <v>227260</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>202245</v>
+        <v>197469</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>254519</v>
+        <v>253235</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2393008326688384</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2129601326114184</v>
+        <v>0.207931008908512</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2680037620702371</v>
+        <v>0.26665149180749</v>
       </c>
     </row>
     <row r="24">
@@ -4558,19 +4558,19 @@
         <v>43102</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31243</v>
+        <v>31177</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>57830</v>
+        <v>58086</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08625249236312868</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06252156349789675</v>
+        <v>0.06238860175727595</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1157243338559079</v>
+        <v>0.1162365229102691</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -4579,19 +4579,19 @@
         <v>30358</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19778</v>
+        <v>19321</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41887</v>
+        <v>43391</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06746638585612545</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04395421279585882</v>
+        <v>0.04293813273025066</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09308863358927204</v>
+        <v>0.09643114415512213</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>68</v>
@@ -4600,19 +4600,19 @@
         <v>73460</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>56540</v>
+        <v>58290</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>93185</v>
+        <v>94545</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07735153965984207</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05953502608651751</v>
+        <v>0.06137776789553486</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09812176858245568</v>
+        <v>0.09955358752691705</v>
       </c>
     </row>
     <row r="25">
@@ -4629,19 +4629,19 @@
         <v>5235</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1018</v>
+        <v>1778</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13134</v>
+        <v>15223</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01047643819001237</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002037998770730916</v>
+        <v>0.003558899614378336</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02628344716982374</v>
+        <v>0.03046263537589573</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -4650,19 +4650,19 @@
         <v>11906</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5545</v>
+        <v>5689</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20825</v>
+        <v>20732</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02645926411924033</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01232376860442162</v>
+        <v>0.01264371662720178</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04628096154848284</v>
+        <v>0.04607487712722909</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -4671,19 +4671,19 @@
         <v>17141</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9655</v>
+        <v>9325</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28479</v>
+        <v>28222</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01804918231386194</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01016618024493768</v>
+        <v>0.009819521335429371</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02998738517564649</v>
+        <v>0.0297168690648639</v>
       </c>
     </row>
     <row r="26">
@@ -4700,19 +4700,19 @@
         <v>3142</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8837</v>
+        <v>8797</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006288263065180866</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001688224502474524</v>
+        <v>0.00168702869279432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01768489995262476</v>
+        <v>0.01760424972570641</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4493</v>
+        <v>4907</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002179902270299128</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.009985639791676158</v>
+        <v>0.01090529615783445</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -4742,19 +4742,19 @@
         <v>4123</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10471</v>
+        <v>10705</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004341700848595587</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001056510230743876</v>
+        <v>0.001045187279133962</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01102523941409449</v>
+        <v>0.01127264898860234</v>
       </c>
     </row>
     <row r="27">
@@ -4846,19 +4846,19 @@
         <v>2045816</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1989642</v>
+        <v>1987180</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2105293</v>
+        <v>2103563</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6015752766358282</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5850570501984238</v>
+        <v>0.5843332507949062</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6190643929607862</v>
+        <v>0.6185557898283877</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1855</v>
@@ -4867,19 +4867,19 @@
         <v>1998871</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1936796</v>
+        <v>1941813</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2062331</v>
+        <v>2057146</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5650083073258878</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5474621750157654</v>
+        <v>0.5488800700557058</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5829461591391132</v>
+        <v>0.5814806245843447</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3778</v>
@@ -4888,19 +4888,19 @@
         <v>4044687</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3970150</v>
+        <v>3960545</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4134733</v>
+        <v>4131386</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.582930769505387</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5721884069807563</v>
+        <v>0.5708041181798447</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5959085238566608</v>
+        <v>0.5954260751559743</v>
       </c>
     </row>
     <row r="29">
@@ -4917,19 +4917,19 @@
         <v>937713</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>883772</v>
+        <v>882060</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>996463</v>
+        <v>994118</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.275735850892209</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2598745868874544</v>
+        <v>0.2593709795502896</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2930115022512703</v>
+        <v>0.2923218218222233</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1002</v>
@@ -4938,19 +4938,19 @@
         <v>1076967</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1016787</v>
+        <v>1022005</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1134602</v>
+        <v>1129607</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3044196191157951</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2874088490343661</v>
+        <v>0.2888837181192823</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3207109748417043</v>
+        <v>0.3192988829860726</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1873</v>
@@ -4959,19 +4959,19 @@
         <v>2014680</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1944524</v>
+        <v>1934708</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2094446</v>
+        <v>2093129</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2903609273277121</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2802498713493118</v>
+        <v>0.2788351280136084</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3018569661108422</v>
+        <v>0.3016671815424335</v>
       </c>
     </row>
     <row r="30">
@@ -4988,19 +4988,19 @@
         <v>327293</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>293231</v>
+        <v>292118</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>368676</v>
+        <v>363037</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09624111495885602</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08622503094266153</v>
+        <v>0.08589785501503976</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1084097535096522</v>
+        <v>0.1067515708018436</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>324</v>
@@ -5009,19 +5009,19 @@
         <v>349061</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>313941</v>
+        <v>316859</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>384244</v>
+        <v>389659</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09866676579957993</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0887398001826179</v>
+        <v>0.08956445363107854</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1086118479055096</v>
+        <v>0.1101425064352435</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>635</v>
@@ -5030,19 +5030,19 @@
         <v>676354</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>627707</v>
+        <v>626114</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>727117</v>
+        <v>727999</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09747788861686721</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0904666979085076</v>
+        <v>0.09023711453276274</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1047939385901321</v>
+        <v>0.1049210917974501</v>
       </c>
     </row>
     <row r="31">
@@ -5059,19 +5059,19 @@
         <v>67275</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>52639</v>
+        <v>52308</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>84697</v>
+        <v>87022</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0197823364181507</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01547871031528099</v>
+        <v>0.01538136195420374</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02490533795136393</v>
+        <v>0.02558902503749912</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>73</v>
@@ -5080,19 +5080,19 @@
         <v>83241</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>64968</v>
+        <v>66355</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>104774</v>
+        <v>104760</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02352934348162424</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01836415296576698</v>
+        <v>0.01875603572519778</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02961590218730031</v>
+        <v>0.02961193377315205</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>135</v>
@@ -5101,19 +5101,19 @@
         <v>150517</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>125005</v>
+        <v>126310</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>174158</v>
+        <v>174777</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02169283382143851</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01801603353209668</v>
+        <v>0.01820416699677216</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0251001494571189</v>
+        <v>0.02518929513705716</v>
       </c>
     </row>
     <row r="32">
@@ -5130,19 +5130,19 @@
         <v>22668</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13530</v>
+        <v>13619</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>35715</v>
+        <v>37499</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006665421094956102</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003978468537170484</v>
+        <v>0.00400461613548873</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01050191399637531</v>
+        <v>0.01102667008665798</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -5151,19 +5151,19 @@
         <v>29632</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18932</v>
+        <v>20015</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>42737</v>
+        <v>43721</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008375964277112924</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005351511645233824</v>
+        <v>0.005657603204745707</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01208020112345806</v>
+        <v>0.01235840756757844</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>44</v>
@@ -5172,19 +5172,19 @@
         <v>52300</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>38264</v>
+        <v>37445</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>71476</v>
+        <v>70375</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00753758072859522</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005514716183028174</v>
+        <v>0.005396719569699603</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01030128555532468</v>
+        <v>0.01014259199918379</v>
       </c>
     </row>
     <row r="33">
@@ -5516,19 +5516,19 @@
         <v>473001</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>435952</v>
+        <v>436995</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>507491</v>
+        <v>507140</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4201415186522451</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3872327281837931</v>
+        <v>0.3881592967181725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4507777709362805</v>
+        <v>0.4504655956001774</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>502</v>
@@ -5537,19 +5537,19 @@
         <v>528474</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>494327</v>
+        <v>491899</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>564121</v>
+        <v>563926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4202289084043059</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3930759800736944</v>
+        <v>0.3911455091778829</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4485746471667985</v>
+        <v>0.4484193081114522</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>945</v>
@@ -5558,19 +5558,19 @@
         <v>1001475</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>952491</v>
+        <v>952918</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1050883</v>
+        <v>1056596</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4201876293279059</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.399635399739144</v>
+        <v>0.3998145342859948</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4409175779257014</v>
+        <v>0.4433148310014192</v>
       </c>
     </row>
     <row r="5">
@@ -5587,19 +5587,19 @@
         <v>413329</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>380364</v>
+        <v>382461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>445160</v>
+        <v>448802</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3671383138390591</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3378573104606679</v>
+        <v>0.3397200887998805</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3954117989681055</v>
+        <v>0.3986470832241506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>435</v>
@@ -5608,19 +5608,19 @@
         <v>458487</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>427251</v>
+        <v>423327</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>498039</v>
+        <v>491913</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3645768931341252</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3397393846458579</v>
+        <v>0.3366185033826828</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3960281300260195</v>
+        <v>0.3911566633622266</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>827</v>
@@ -5629,19 +5629,19 @@
         <v>871816</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>825052</v>
+        <v>821464</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>920388</v>
+        <v>919495</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3657867956510455</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3461659461952762</v>
+        <v>0.3446609194877354</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3861661113373435</v>
+        <v>0.3857914723874549</v>
       </c>
     </row>
     <row r="6">
@@ -5658,19 +5658,19 @@
         <v>185331</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>162773</v>
+        <v>160880</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>212611</v>
+        <v>211260</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1646199548580191</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1445827099159088</v>
+        <v>0.142900889792633</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1888508913409286</v>
+        <v>0.1876509820910553</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>193</v>
@@ -5679,19 +5679,19 @@
         <v>208981</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>185503</v>
+        <v>182783</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>238478</v>
+        <v>240800</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1661766525210824</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1475073409185583</v>
+        <v>0.1453439727132099</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.189631372715727</v>
+        <v>0.1914782030212933</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>370</v>
@@ -5700,19 +5700,19 @@
         <v>394313</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>361325</v>
+        <v>359349</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>434411</v>
+        <v>433793</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1654413369920885</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1516009072770396</v>
+        <v>0.1507715813827875</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1822653368872698</v>
+        <v>0.1820059486395599</v>
       </c>
     </row>
     <row r="7">
@@ -5729,19 +5729,19 @@
         <v>40976</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30129</v>
+        <v>29307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56045</v>
+        <v>56425</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03639679606729766</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02676160863297119</v>
+        <v>0.02603153721705967</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04978222378052202</v>
+        <v>0.05011917626621404</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -5750,19 +5750,19 @@
         <v>47425</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34571</v>
+        <v>34626</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62003</v>
+        <v>61528</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03771120943369458</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02748993443277779</v>
+        <v>0.02753389270417425</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04930345553909551</v>
+        <v>0.0489256359416381</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -5771,19 +5771,19 @@
         <v>88401</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70335</v>
+        <v>71110</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108281</v>
+        <v>108577</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03709033835335464</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02951027780858759</v>
+        <v>0.02983561661939448</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04543115161410156</v>
+        <v>0.04555571359868314</v>
       </c>
     </row>
     <row r="8">
@@ -5800,19 +5800,19 @@
         <v>13176</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7048</v>
+        <v>7465</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22869</v>
+        <v>21809</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0117034165833791</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006260406196484118</v>
+        <v>0.00663102173775271</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02031319261696528</v>
+        <v>0.01937187209651147</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -5821,19 +5821,19 @@
         <v>14219</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7615</v>
+        <v>7807</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23425</v>
+        <v>24095</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01130633650679191</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006055509256366681</v>
+        <v>0.006208207144033919</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01862713423284751</v>
+        <v>0.01915969794809349</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>25</v>
@@ -5842,19 +5842,19 @@
         <v>27395</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17294</v>
+        <v>17020</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40257</v>
+        <v>39601</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01149389967560535</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.007256097249349246</v>
+        <v>0.007141108762324306</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01689076498079588</v>
+        <v>0.01661553707408263</v>
       </c>
     </row>
     <row r="9">
@@ -5946,19 +5946,19 @@
         <v>431359</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>401320</v>
+        <v>402498</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>461174</v>
+        <v>465497</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4753641892414285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4422609985504573</v>
+        <v>0.4435589781553292</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5082206282262667</v>
+        <v>0.512984983788263</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>447</v>
@@ -5967,19 +5967,19 @@
         <v>469108</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>436898</v>
+        <v>438456</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>503412</v>
+        <v>502875</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4673974170573902</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4353047384252188</v>
+        <v>0.4368574283931904</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.501576533546871</v>
+        <v>0.5010414000786928</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>869</v>
@@ -5988,19 +5988,19 @@
         <v>900467</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>855028</v>
+        <v>858217</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>941266</v>
+        <v>942239</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4711802215225069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4474038893946365</v>
+        <v>0.4490722718479213</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4925286703542962</v>
+        <v>0.4930381044047488</v>
       </c>
     </row>
     <row r="11">
@@ -6017,19 +6017,19 @@
         <v>323525</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>294138</v>
+        <v>293108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>356502</v>
+        <v>354021</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.356530114381138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3241443608229296</v>
+        <v>0.3230100123539957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3928705150618579</v>
+        <v>0.3901369927479935</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -6038,19 +6038,19 @@
         <v>347992</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318299</v>
+        <v>316521</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>380937</v>
+        <v>379085</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3467226354468173</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3171383198526061</v>
+        <v>0.3153670780972221</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3795479618360723</v>
+        <v>0.3777027994990959</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>637</v>
@@ -6059,19 +6059,19 @@
         <v>671517</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>629254</v>
+        <v>631064</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>715084</v>
+        <v>711769</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3513794493040801</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3292649075340467</v>
+        <v>0.3302118922642872</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3741761699462385</v>
+        <v>0.3724419463466295</v>
       </c>
     </row>
     <row r="12">
@@ -6088,19 +6088,19 @@
         <v>136078</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>114422</v>
+        <v>115927</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>158499</v>
+        <v>160596</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.149959606442338</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1260943470809516</v>
+        <v>0.1277538429732552</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1746687335766864</v>
+        <v>0.1769790596231866</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>153</v>
@@ -6109,19 +6109,19 @@
         <v>160381</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>138079</v>
+        <v>136145</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>184851</v>
+        <v>183926</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1597966059138801</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1375758545575261</v>
+        <v>0.1356486176225077</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1841769109223751</v>
+        <v>0.1832549584633866</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>285</v>
@@ -6130,19 +6130,19 @@
         <v>296459</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>266136</v>
+        <v>265352</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>329341</v>
+        <v>329598</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1551257750347377</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1392591018083705</v>
+        <v>0.1388485881976693</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1723316539338073</v>
+        <v>0.1724661056986592</v>
       </c>
     </row>
     <row r="13">
@@ -6159,19 +6159,19 @@
         <v>14431</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7468</v>
+        <v>7684</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25200</v>
+        <v>24699</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01590281151790656</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008230362434313158</v>
+        <v>0.00846790083856566</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02777032391331723</v>
+        <v>0.02721869754766214</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -6180,19 +6180,19 @@
         <v>22959</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14773</v>
+        <v>14687</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35311</v>
+        <v>35726</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02287509920777217</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01471931056714659</v>
+        <v>0.01463335328160656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03518198097888663</v>
+        <v>0.03559574189127813</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -6201,19 +6201,19 @@
         <v>37389</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25565</v>
+        <v>25019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50832</v>
+        <v>51103</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01956449857855573</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01337713640774891</v>
+        <v>0.0130915896308063</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02659868731149674</v>
+        <v>0.02674001060517578</v>
       </c>
     </row>
     <row r="14">
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7029</v>
+        <v>6531</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002243278417188899</v>
@@ -6242,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007745755610101422</v>
+        <v>0.00719710139778747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -6251,19 +6251,19 @@
         <v>3220</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9531</v>
+        <v>8505</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003208242374140163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0009850890562014493</v>
+        <v>0.0009820735171875879</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009496109708093512</v>
+        <v>0.008474232154219977</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -6272,19 +6272,19 @@
         <v>5256</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2048</v>
+        <v>1880</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11427</v>
+        <v>11445</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002750055560119639</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001071501822044901</v>
+        <v>0.0009835641997806501</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005979525669742698</v>
+        <v>0.005988606473026029</v>
       </c>
     </row>
     <row r="15">
@@ -6376,19 +6376,19 @@
         <v>418428</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>389506</v>
+        <v>388265</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>447845</v>
+        <v>445808</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5091381950005598</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.473946133773316</v>
+        <v>0.4724362598399015</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5449321082949731</v>
+        <v>0.5424532907806764</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>374</v>
@@ -6397,19 +6397,19 @@
         <v>388193</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>361102</v>
+        <v>360508</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>416904</v>
+        <v>416436</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5034548759472626</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4683192670191553</v>
+        <v>0.4675485891906445</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5406905009075113</v>
+        <v>0.5400825995828342</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>776</v>
@@ -6418,19 +6418,19 @@
         <v>806622</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>766856</v>
+        <v>766388</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>847365</v>
+        <v>845556</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5063871195799808</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4814227803105539</v>
+        <v>0.4811289059038511</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5319656942973208</v>
+        <v>0.5308299689780548</v>
       </c>
     </row>
     <row r="17">
@@ -6447,19 +6447,19 @@
         <v>289963</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>263659</v>
+        <v>260038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>316387</v>
+        <v>316754</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3528238342681206</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3208167063648837</v>
+        <v>0.3164108135992097</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3849762892525083</v>
+        <v>0.3854226926175264</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>258</v>
@@ -6468,19 +6468,19 @@
         <v>273842</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>247115</v>
+        <v>246960</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>299464</v>
+        <v>299150</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3551507671351107</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3204878176391494</v>
+        <v>0.3202867664470728</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.388380045279313</v>
+        <v>0.3879735489705159</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>533</v>
@@ -6489,19 +6489,19 @@
         <v>563806</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>526374</v>
+        <v>524558</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>603672</v>
+        <v>601570</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3539502126670246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3304511602222154</v>
+        <v>0.3293110869674826</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3789781418436625</v>
+        <v>0.3776585684275165</v>
       </c>
     </row>
     <row r="18">
@@ -6518,19 +6518,19 @@
         <v>104296</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>85352</v>
+        <v>85808</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>124519</v>
+        <v>123782</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1269059274794265</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1038557921609092</v>
+        <v>0.1044100152749249</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1515133852411719</v>
+        <v>0.1506166813433849</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>85</v>
@@ -6539,19 +6539,19 @@
         <v>96395</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>78289</v>
+        <v>78311</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117419</v>
+        <v>116635</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1250161651972435</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1015345596156402</v>
+        <v>0.1015624193911646</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1522826782936876</v>
+        <v>0.1512655667872023</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>184</v>
@@ -6560,19 +6560,19 @@
         <v>200691</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>175098</v>
+        <v>174105</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>230797</v>
+        <v>228064</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1259911664891502</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1099243681088358</v>
+        <v>0.1093010035279432</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1448913752309778</v>
+        <v>0.1431760338472587</v>
       </c>
     </row>
     <row r="19">
@@ -6589,19 +6589,19 @@
         <v>8024</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3736</v>
+        <v>3729</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16616</v>
+        <v>14910</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009763088306674678</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004546422202384814</v>
+        <v>0.004536990195155592</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02021858833904908</v>
+        <v>0.01814275767977933</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -6610,19 +6610,19 @@
         <v>12629</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6604</v>
+        <v>6690</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23475</v>
+        <v>23389</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01637819172038317</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00856521366757982</v>
+        <v>0.008675865498641638</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03044512025461234</v>
+        <v>0.03033326392317146</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -6631,19 +6631,19 @@
         <v>20652</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12942</v>
+        <v>12820</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32908</v>
+        <v>31937</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0129652045763012</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008124917614982477</v>
+        <v>0.008048508805273802</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02065896280376145</v>
+        <v>0.02004961829275072</v>
       </c>
     </row>
     <row r="20">
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5684</v>
+        <v>7231</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001368954945218364</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.00691646573024202</v>
+        <v>0.008798562061543001</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5661</v>
+        <v>5904</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0007062966875431536</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.003554110871839409</v>
+        <v>0.003706531343137699</v>
       </c>
     </row>
     <row r="21">
@@ -6798,19 +6798,19 @@
         <v>327937</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>306612</v>
+        <v>306423</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>349750</v>
+        <v>348036</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6472006411514614</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6051135353842324</v>
+        <v>0.6047419758083858</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6902489505737409</v>
+        <v>0.6868666873389054</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>300</v>
@@ -6819,19 +6819,19 @@
         <v>323523</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>301149</v>
+        <v>300794</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>344494</v>
+        <v>344035</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.661922785555131</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6161445590854923</v>
+        <v>0.615418241468293</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7048282150470127</v>
+        <v>0.7038884606907547</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>607</v>
@@ -6840,19 +6840,19 @@
         <v>651461</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>623277</v>
+        <v>620959</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>680115</v>
+        <v>682163</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6544290703117855</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6261175612896511</v>
+        <v>0.6237885890302752</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6832144720098637</v>
+        <v>0.6852716025050594</v>
       </c>
     </row>
     <row r="23">
@@ -6869,19 +6869,19 @@
         <v>132753</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>112885</v>
+        <v>114589</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>152201</v>
+        <v>151867</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2619942199221685</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.222784763887848</v>
+        <v>0.2261470380424651</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3003756189986613</v>
+        <v>0.2997181115731143</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>112</v>
@@ -6890,19 +6890,19 @@
         <v>119148</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>99728</v>
+        <v>98567</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>139014</v>
+        <v>138910</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.243773874653498</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2040426187568599</v>
+        <v>0.2016669570777677</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.284419834567982</v>
+        <v>0.2842072087244824</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>234</v>
@@ -6911,19 +6911,19 @@
         <v>251900</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>226984</v>
+        <v>224150</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>282546</v>
+        <v>281740</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2530482082923406</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2280179481227036</v>
+        <v>0.2251718455668663</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2838336762205244</v>
+        <v>0.2830242214506321</v>
       </c>
     </row>
     <row r="24">
@@ -6940,19 +6940,19 @@
         <v>36243</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25734</v>
+        <v>25774</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50571</v>
+        <v>50633</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07152747629844512</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05078784625897154</v>
+        <v>0.0508655036324661</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09980510658463901</v>
+        <v>0.09992591635114903</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -6961,19 +6961,19 @@
         <v>38452</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26843</v>
+        <v>26919</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>51493</v>
+        <v>51998</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07867150722545573</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05491949667459004</v>
+        <v>0.05507656277232895</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1053535362518585</v>
+        <v>0.1063877223274138</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>69</v>
@@ -6982,19 +6982,19 @@
         <v>74695</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57217</v>
+        <v>58026</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>92827</v>
+        <v>92317</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07503512573178378</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05747754495948776</v>
+        <v>0.05829027052619611</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09325025664100994</v>
+        <v>0.09273735872051705</v>
       </c>
     </row>
     <row r="25">
@@ -7011,19 +7011,19 @@
         <v>7881</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3554</v>
+        <v>3303</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14977</v>
+        <v>15967</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01555408491297475</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007013890173593693</v>
+        <v>0.00651906775136249</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02955774258540691</v>
+        <v>0.03151192874946545</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -7032,19 +7032,19 @@
         <v>6435</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2543</v>
+        <v>2180</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15502</v>
+        <v>14183</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01316616554523714</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.005203943497744558</v>
+        <v>0.00445993682038889</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03171700760401018</v>
+        <v>0.02901723995373475</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -7053,19 +7053,19 @@
         <v>14316</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7350</v>
+        <v>7214</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24926</v>
+        <v>25176</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01438163981822652</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007383354207056369</v>
+        <v>0.007246423553874455</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02503916824959794</v>
+        <v>0.02529098534478189</v>
       </c>
     </row>
     <row r="26">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6584</v>
+        <v>6536</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003723577714950187</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01299288989302974</v>
+        <v>0.0128985968159806</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5957</v>
+        <v>6244</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.002465667020678229</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01218762486910181</v>
+        <v>0.01277499895775579</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -7124,19 +7124,19 @@
         <v>3092</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8454</v>
+        <v>8716</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003105955845863461</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0008267422586643115</v>
+        <v>0.0008308302312277396</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.00849235491826246</v>
+        <v>0.008755733208892917</v>
       </c>
     </row>
     <row r="27">
@@ -7228,19 +7228,19 @@
         <v>1650724</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1592268</v>
+        <v>1594685</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1709406</v>
+        <v>1709847</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4910273262508596</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4736389189725515</v>
+        <v>0.4743578404319216</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5084828189010933</v>
+        <v>0.5086139215200329</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1623</v>
@@ -7249,19 +7249,19 @@
         <v>1709299</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1649624</v>
+        <v>1654366</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1766683</v>
+        <v>1771218</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4854489825921312</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4685009200899107</v>
+        <v>0.4698477878280077</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5017464869786198</v>
+        <v>0.5030343832538662</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3197</v>
@@ -7270,19 +7270,19 @@
         <v>3360023</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3276368</v>
+        <v>3267411</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3442001</v>
+        <v>3434259</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4881736043300422</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.476019411067414</v>
+        <v>0.4747181470938858</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5000840675435934</v>
+        <v>0.4989592088718686</v>
       </c>
     </row>
     <row r="29">
@@ -7299,19 +7299,19 @@
         <v>1159570</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1104694</v>
+        <v>1103693</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1217955</v>
+        <v>1218347</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3449277610842241</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3286041381610944</v>
+        <v>0.3283063054503992</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3622949139803255</v>
+        <v>0.3624115553607808</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1130</v>
@@ -7320,19 +7320,19 @@
         <v>1199468</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1141473</v>
+        <v>1141983</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1252828</v>
+        <v>1247568</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3406546733001934</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3241836778252308</v>
+        <v>0.3243285612176843</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3558089978950733</v>
+        <v>0.3543153300990371</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2231</v>
@@ -7341,19 +7341,19 @@
         <v>2359038</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2277772</v>
+        <v>2286749</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2436650</v>
+        <v>2437543</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3427417709364524</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3309347315572123</v>
+        <v>0.3322388848808278</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3540178744739659</v>
+        <v>0.3541476018105909</v>
       </c>
     </row>
     <row r="30">
@@ -7370,19 +7370,19 @@
         <v>461948</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>423047</v>
+        <v>425406</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>503417</v>
+        <v>507937</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1374117320433476</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1258402747321656</v>
+        <v>0.1265420490241714</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1497473597430181</v>
+        <v>0.1510916752778938</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>467</v>
@@ -7391,19 +7391,19 @@
         <v>504209</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>461132</v>
+        <v>464518</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>545331</v>
+        <v>548445</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1431978735843895</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1309636841793681</v>
+        <v>0.1319253555190339</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1548765200389122</v>
+        <v>0.1557610661307271</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>908</v>
@@ -7412,19 +7412,19 @@
         <v>966157</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>907805</v>
+        <v>909851</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1025746</v>
+        <v>1027310</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1403717574492379</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1318939097616568</v>
+        <v>0.1321910928363619</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1490293403908528</v>
+        <v>0.149256661485222</v>
       </c>
     </row>
     <row r="31">
@@ -7441,19 +7441,19 @@
         <v>71312</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>55407</v>
+        <v>54468</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>91369</v>
+        <v>87581</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02121245700443793</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01648153851424101</v>
+        <v>0.01620200782774727</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02717867586337053</v>
+        <v>0.02605187299617433</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>81</v>
@@ -7462,19 +7462,19 @@
         <v>89448</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>72017</v>
+        <v>72474</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>111921</v>
+        <v>111611</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0254035420779028</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02045325900139595</v>
+        <v>0.02058289111596525</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03178608223650912</v>
+        <v>0.03169791391187281</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>147</v>
@@ -7483,19 +7483,19 @@
         <v>160759</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>136325</v>
+        <v>134903</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>187411</v>
+        <v>189324</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02335649689833063</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0198065503119806</v>
+        <v>0.01959983116733444</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02722870676857903</v>
+        <v>0.02750668702581211</v>
       </c>
     </row>
     <row r="32">
@@ -7512,19 +7512,19 @@
         <v>18223</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10950</v>
+        <v>11495</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>28719</v>
+        <v>28289</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005420723617130792</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.00325713658073772</v>
+        <v>0.003419201401946125</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.008542826744892665</v>
+        <v>0.008414999496729194</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -7533,19 +7533,19 @@
         <v>18644</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11226</v>
+        <v>10780</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30540</v>
+        <v>29888</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005294928445383195</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003188224303976898</v>
+        <v>0.0030616938573876</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.008673440879493066</v>
+        <v>0.0084881917370028</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>34</v>
@@ -7554,19 +7554,19 @@
         <v>36867</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25344</v>
+        <v>26895</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>50588</v>
+        <v>51983</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005356370385936906</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003682199636640321</v>
+        <v>0.003907599095384885</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.007349875269196021</v>
+        <v>0.007552590821372279</v>
       </c>
     </row>
     <row r="33">
@@ -7898,19 +7898,19 @@
         <v>204685</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>180419</v>
+        <v>181557</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>229601</v>
+        <v>231860</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4117381729764096</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3629243735151512</v>
+        <v>0.3652148698081355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4618569387274597</v>
+        <v>0.4664024304464047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>360</v>
@@ -7919,19 +7919,19 @@
         <v>280350</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>256292</v>
+        <v>257613</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>303053</v>
+        <v>303811</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4514161080593025</v>
+        <v>0.4514161080593024</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4126779335376318</v>
+        <v>0.4148051599905555</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4879718077257149</v>
+        <v>0.4891921875684113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>533</v>
@@ -7940,19 +7940,19 @@
         <v>485036</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>453406</v>
+        <v>450891</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>521291</v>
+        <v>518116</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.43377578675938</v>
+        <v>0.4337757867593798</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4054886987723467</v>
+        <v>0.4032394633673514</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4661996681458925</v>
+        <v>0.4633603820576976</v>
       </c>
     </row>
     <row r="5">
@@ -7969,19 +7969,19 @@
         <v>145494</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>125480</v>
+        <v>124525</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169560</v>
+        <v>167483</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2926710025463689</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2524121077929289</v>
+        <v>0.250491007826947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3410805382118724</v>
+        <v>0.3369035234954289</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>245</v>
@@ -7990,19 +7990,19 @@
         <v>173867</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>156244</v>
+        <v>153431</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>196165</v>
+        <v>195586</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2799586470290105</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2515814124246594</v>
+        <v>0.2470523339171176</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3158621323976851</v>
+        <v>0.3149299427945749</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>382</v>
@@ -8011,19 +8011,19 @@
         <v>319361</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>289342</v>
+        <v>292172</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>348356</v>
+        <v>350504</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2856104037380367</v>
+        <v>0.2856104037380366</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2587632985455462</v>
+        <v>0.2612941706789338</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3115406372822698</v>
+        <v>0.3134616033002374</v>
       </c>
     </row>
     <row r="6">
@@ -8040,19 +8040,19 @@
         <v>79302</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63001</v>
+        <v>61740</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101997</v>
+        <v>101644</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1595210029445857</v>
+        <v>0.1595210029445856</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.126731047979612</v>
+        <v>0.124194094842502</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2051747237016498</v>
+        <v>0.2044632820081337</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>137</v>
@@ -8061,19 +8061,19 @@
         <v>86290</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72164</v>
+        <v>73552</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>100223</v>
+        <v>100741</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1389423453225989</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1161982735555303</v>
+        <v>0.1184330598141252</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1613783665029934</v>
+        <v>0.1622125834968795</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>208</v>
@@ -8082,19 +8082,19 @@
         <v>165591</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>144773</v>
+        <v>143771</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>192834</v>
+        <v>192077</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1480913630730075</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1294729551832768</v>
+        <v>0.1285764916139404</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1724550282937912</v>
+        <v>0.171777741799466</v>
       </c>
     </row>
     <row r="7">
@@ -8111,19 +8111,19 @@
         <v>49761</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36783</v>
+        <v>38284</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64966</v>
+        <v>66164</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1000978358431432</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07399167186816283</v>
+        <v>0.07701035898725755</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1306843207993504</v>
+        <v>0.1330932930522464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -8132,19 +8132,19 @@
         <v>60654</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47371</v>
+        <v>48582</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>76662</v>
+        <v>77029</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09766404840018403</v>
+        <v>0.097664048400184</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07627555234428228</v>
+        <v>0.07822545050530368</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1234396874762305</v>
+        <v>0.1240317498925515</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -8153,19 +8153,19 @@
         <v>110415</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92824</v>
+        <v>92058</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133496</v>
+        <v>131796</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09874608032497609</v>
+        <v>0.09874608032497606</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0830145527461405</v>
+        <v>0.08232919947999968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1193882273666813</v>
+        <v>0.1178676987634988</v>
       </c>
     </row>
     <row r="8">
@@ -8182,19 +8182,19 @@
         <v>17883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10658</v>
+        <v>10913</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27055</v>
+        <v>27781</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03597198568949259</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02143853354916286</v>
+        <v>0.02195197037763138</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0544229211502122</v>
+        <v>0.05588410696386857</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -8203,19 +8203,19 @@
         <v>19885</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14387</v>
+        <v>13060</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28539</v>
+        <v>28093</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03201885118890416</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02316603952363267</v>
+        <v>0.02102962409060487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04595343678767053</v>
+        <v>0.04523493587061687</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>50</v>
@@ -8224,19 +8224,19 @@
         <v>37768</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28650</v>
+        <v>27721</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>51048</v>
+        <v>50214</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03377636610459984</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0256217820729056</v>
+        <v>0.02479163464966313</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04565343922692237</v>
+        <v>0.04490702706408349</v>
       </c>
     </row>
     <row r="9">
@@ -8328,19 +8328,19 @@
         <v>451138</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>416731</v>
+        <v>412789</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>483437</v>
+        <v>483643</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4712801737499405</v>
+        <v>0.4712801737499406</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4353375510391169</v>
+        <v>0.4312193340212556</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.505021495958264</v>
+        <v>0.5052368089483755</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>734</v>
@@ -8349,19 +8349,19 @@
         <v>531563</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>499628</v>
+        <v>502581</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>563325</v>
+        <v>563378</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4773228757252234</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4486465767075339</v>
+        <v>0.451298370028089</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5058446687979224</v>
+        <v>0.5058916750663598</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1133</v>
@@ -8370,19 +8370,19 @@
         <v>982700</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>943237</v>
+        <v>937584</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1029290</v>
+        <v>1027364</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4745296656609946</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4554737351498694</v>
+        <v>0.4527436712343962</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4970271971595879</v>
+        <v>0.4960968644831464</v>
       </c>
     </row>
     <row r="11">
@@ -8399,19 +8399,19 @@
         <v>362475</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>329702</v>
+        <v>328560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>395040</v>
+        <v>396097</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3786592858142864</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3444226633342132</v>
+        <v>0.3432292565241025</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4126778360555399</v>
+        <v>0.4137820334450043</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>591</v>
@@ -8420,19 +8420,19 @@
         <v>404958</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>377353</v>
+        <v>377798</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>435041</v>
+        <v>432253</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3636372666785923</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3388490230579063</v>
+        <v>0.3392485478308953</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3906498312197858</v>
+        <v>0.3881464326309155</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>945</v>
@@ -8441,19 +8441,19 @@
         <v>767434</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>722545</v>
+        <v>724843</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>808489</v>
+        <v>812942</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3705811231200467</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3489051948173529</v>
+        <v>0.3500147329247872</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.390406027158605</v>
+        <v>0.3925564361093726</v>
       </c>
     </row>
     <row r="12">
@@ -8470,19 +8470,19 @@
         <v>95281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>75836</v>
+        <v>74962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116419</v>
+        <v>116030</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09953467807054707</v>
+        <v>0.09953467807054706</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07922196031075671</v>
+        <v>0.07830848849583591</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1216168509464843</v>
+        <v>0.1212109303795291</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>191</v>
@@ -8491,19 +8491,19 @@
         <v>120350</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>104266</v>
+        <v>104521</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>138371</v>
+        <v>138506</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1080699779707542</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09362706907466392</v>
+        <v>0.09385584004231957</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1242518409995711</v>
+        <v>0.1243732400511029</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>291</v>
@@ -8512,19 +8512,19 @@
         <v>215631</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>189491</v>
+        <v>191511</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>245504</v>
+        <v>244321</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1041245764467359</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09150220561107647</v>
+        <v>0.09247763083086794</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1185498672335046</v>
+        <v>0.1179788059864302</v>
       </c>
     </row>
     <row r="13">
@@ -8541,19 +8541,19 @@
         <v>32635</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24214</v>
+        <v>23147</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44731</v>
+        <v>45058</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03409240511767305</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02529524603134174</v>
+        <v>0.02418057016395697</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04672853939128024</v>
+        <v>0.04707026109522171</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -8562,19 +8562,19 @@
         <v>46524</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36906</v>
+        <v>36993</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58041</v>
+        <v>60908</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04177650685582409</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03313973717220196</v>
+        <v>0.03321862353131316</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05211895211610718</v>
+        <v>0.05469310894706619</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>110</v>
@@ -8583,19 +8583,19 @@
         <v>79159</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64383</v>
+        <v>65874</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96238</v>
+        <v>96579</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03822456760789249</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03108934556563226</v>
+        <v>0.03180966477229617</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04647167061864568</v>
+        <v>0.04663629901396094</v>
       </c>
     </row>
     <row r="14">
@@ -8612,19 +8612,19 @@
         <v>15731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9215</v>
+        <v>9394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25258</v>
+        <v>25332</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01643345724755301</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009626750184831816</v>
+        <v>0.009813293478093083</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02638591742695487</v>
+        <v>0.02646350249213337</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -8633,19 +8633,19 @@
         <v>10238</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5633</v>
+        <v>5952</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17106</v>
+        <v>17001</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.009193372769605976</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005057978511168673</v>
+        <v>0.005344606125380178</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01536044266493039</v>
+        <v>0.01526604386697946</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -8654,19 +8654,19 @@
         <v>25969</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17361</v>
+        <v>17562</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37327</v>
+        <v>36847</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01254006716433016</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008383391453261292</v>
+        <v>0.008480458659820493</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01802457997507078</v>
+        <v>0.01779278634074311</v>
       </c>
     </row>
     <row r="15">
@@ -8758,19 +8758,19 @@
         <v>636902</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>603256</v>
+        <v>604472</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>669741</v>
+        <v>668515</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6099936089749569</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5777690690524078</v>
+        <v>0.5789338272378588</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6414458642246195</v>
+        <v>0.640271706342796</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>872</v>
@@ -8779,19 +8779,19 @@
         <v>624492</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>596325</v>
+        <v>596909</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>650444</v>
+        <v>652235</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.598688182194584</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5716857168178321</v>
+        <v>0.5722455826839131</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6235681790298764</v>
+        <v>0.6252852985609568</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1460</v>
@@ -8800,19 +8800,19 @@
         <v>1261393</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1214535</v>
+        <v>1222607</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1299803</v>
+        <v>1304191</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6043436361245939</v>
+        <v>0.6043436361245937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5818934987976007</v>
+        <v>0.5857609717145265</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6227458735574711</v>
+        <v>0.6248484319852262</v>
       </c>
     </row>
     <row r="17">
@@ -8829,19 +8829,19 @@
         <v>323389</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>295150</v>
+        <v>295597</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>358114</v>
+        <v>353652</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.309726293180561</v>
+        <v>0.3097262931805609</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2826800809968583</v>
+        <v>0.2831080731661064</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3429842795154397</v>
+        <v>0.3387106203157983</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>482</v>
@@ -8850,19 +8850,19 @@
         <v>323306</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>296704</v>
+        <v>296495</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>347527</v>
+        <v>349838</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3099471791302258</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2844444377692916</v>
+        <v>0.2842439277126889</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3331675573764223</v>
+        <v>0.3353827841676829</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>823</v>
@@ -8871,19 +8871,19 @@
         <v>646695</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>609641</v>
+        <v>606950</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>690566</v>
+        <v>688296</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3098366826106</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2920837121245553</v>
+        <v>0.2907946587251649</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3308558397036123</v>
+        <v>0.3297682971316063</v>
       </c>
     </row>
     <row r="18">
@@ -8900,19 +8900,19 @@
         <v>67346</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52320</v>
+        <v>53345</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>83320</v>
+        <v>83142</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06450072058966017</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05010911431621805</v>
+        <v>0.05109145533210357</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0797996480052956</v>
+        <v>0.07962921530594334</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>107</v>
@@ -8921,19 +8921,19 @@
         <v>65081</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53978</v>
+        <v>52819</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>79832</v>
+        <v>79227</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.06239212133690477</v>
+        <v>0.06239212133690478</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05174765655454118</v>
+        <v>0.05063698931050186</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07653313616398771</v>
+        <v>0.07595357513701582</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>186</v>
@@ -8942,19 +8942,19 @@
         <v>132427</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>111897</v>
+        <v>114420</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>153607</v>
+        <v>154088</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06344693210720792</v>
+        <v>0.06344693210720793</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05361097677458232</v>
+        <v>0.05481945676997533</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07359450299877983</v>
+        <v>0.0738246317115023</v>
       </c>
     </row>
     <row r="19">
@@ -8971,19 +8971,19 @@
         <v>14321</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8328</v>
+        <v>8550</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23558</v>
+        <v>24926</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01371574397291657</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007976442560774042</v>
+        <v>0.008188508091459254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02256257169587832</v>
+        <v>0.02387328828578276</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -8992,19 +8992,19 @@
         <v>23050</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16092</v>
+        <v>16289</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32227</v>
+        <v>32294</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02209717482058962</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01542664247951531</v>
+        <v>0.01561573926023167</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03089544454473956</v>
+        <v>0.03096004601935804</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -9013,19 +9013,19 @@
         <v>37370</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>28140</v>
+        <v>27655</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49261</v>
+        <v>50240</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01790442766053825</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01348223733816682</v>
+        <v>0.01324967240589537</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0236012028755153</v>
+        <v>0.02407045990930984</v>
       </c>
     </row>
     <row r="20">
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8332</v>
+        <v>7908</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002063633281905314</v>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.007979642684562025</v>
+        <v>0.007573652095954344</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -9063,19 +9063,19 @@
         <v>7172</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3963</v>
+        <v>3813</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12354</v>
+        <v>12388</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.006875342517695806</v>
+        <v>0.006875342517695805</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003799684341990585</v>
+        <v>0.003655484569199835</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01184344676345969</v>
+        <v>0.01187582300066696</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -9084,19 +9084,19 @@
         <v>9326</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5119</v>
+        <v>4940</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15881</v>
+        <v>16172</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.004468321497060101</v>
+        <v>0.004468321497060102</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00245272111354378</v>
+        <v>0.002366761902226983</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007608806101046679</v>
+        <v>0.007748372233594678</v>
       </c>
     </row>
     <row r="21">
@@ -9188,19 +9188,19 @@
         <v>678945</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>645637</v>
+        <v>649683</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>706892</v>
+        <v>706941</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6969976627749344</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6628035138174131</v>
+        <v>0.6669566930232724</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7256870544458387</v>
+        <v>0.7257379589550382</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>874</v>
@@ -9209,19 +9209,19 @@
         <v>634530</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>610537</v>
+        <v>608299</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>659817</v>
+        <v>659074</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7000500305318755</v>
+        <v>0.7000500305318756</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6735789791407311</v>
+        <v>0.6711104214940347</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7279483651958933</v>
+        <v>0.7271280629390685</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1490</v>
@@ -9230,19 +9230,19 @@
         <v>1313476</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1273882</v>
+        <v>1270558</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1348504</v>
+        <v>1349394</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.69846890813812</v>
+        <v>0.6984689081381199</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6774136949200565</v>
+        <v>0.6756460424858172</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7170954912829003</v>
+        <v>0.7175686740010766</v>
       </c>
     </row>
     <row r="23">
@@ -9259,19 +9259,19 @@
         <v>224561</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>199960</v>
+        <v>199609</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>255053</v>
+        <v>252232</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.230531666408659</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2052764690128212</v>
+        <v>0.2049161641047648</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2618341174074642</v>
+        <v>0.2589382685266387</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>362</v>
@@ -9280,19 +9280,19 @@
         <v>213913</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>192539</v>
+        <v>192456</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>235067</v>
+        <v>235964</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2360015029705036</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2124197621655877</v>
+        <v>0.2123284716921143</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2593396951477678</v>
+        <v>0.2603288962394346</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>618</v>
@@ -9301,19 +9301,19 @@
         <v>438475</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>407106</v>
+        <v>403011</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>477773</v>
+        <v>472451</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2331681349864367</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2164873328103347</v>
+        <v>0.2143094026260308</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2540658116235491</v>
+        <v>0.2512358256553386</v>
       </c>
     </row>
     <row r="24">
@@ -9330,19 +9330,19 @@
         <v>41905</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29919</v>
+        <v>29396</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58662</v>
+        <v>58646</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04301899407164379</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03071420963899572</v>
+        <v>0.03017809407462486</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06022193449194244</v>
+        <v>0.06020520464435229</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -9351,19 +9351,19 @@
         <v>30928</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22818</v>
+        <v>21864</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42022</v>
+        <v>42335</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03412138794236086</v>
+        <v>0.03412138794236087</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02517373857043372</v>
+        <v>0.02412193843198469</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04636158941872647</v>
+        <v>0.04670675750048335</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>88</v>
@@ -9372,19 +9372,19 @@
         <v>72833</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>56559</v>
+        <v>58142</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>91622</v>
+        <v>91400</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03873033595323998</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03007645829851383</v>
+        <v>0.03091827200896288</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04872203822099785</v>
+        <v>0.04860413979366232</v>
       </c>
     </row>
     <row r="25">
@@ -9401,19 +9401,19 @@
         <v>21170</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13533</v>
+        <v>13602</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33170</v>
+        <v>33519</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02173276434747451</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01389285405162403</v>
+        <v>0.01396392894183992</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03405229276882502</v>
+        <v>0.03441007391427737</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -9422,19 +9422,19 @@
         <v>16303</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10940</v>
+        <v>10629</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26845</v>
+        <v>26794</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01798586411592461</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01206964736353264</v>
+        <v>0.01172601034144733</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02961716484744566</v>
+        <v>0.02956057601203108</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -9443,19 +9443,19 @@
         <v>37472</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26563</v>
+        <v>28122</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>50411</v>
+        <v>53767</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01992675339763034</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01412541003801739</v>
+        <v>0.01495447625876313</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02680712112181943</v>
+        <v>0.02859195798118497</v>
       </c>
     </row>
     <row r="26">
@@ -9472,19 +9472,19 @@
         <v>7519</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3588</v>
+        <v>3336</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19973</v>
+        <v>17857</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.007718912397288487</v>
+        <v>0.007718912397288486</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003683737276410192</v>
+        <v>0.003424279632900243</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02050445322903341</v>
+        <v>0.01833173792080844</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -9493,19 +9493,19 @@
         <v>10733</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4633</v>
+        <v>4724</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23183</v>
+        <v>24306</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01184121443933539</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005111209264598951</v>
+        <v>0.00521207543380101</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02557671925809813</v>
+        <v>0.02681593017463072</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -9514,19 +9514,19 @@
         <v>18252</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10226</v>
+        <v>10509</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31714</v>
+        <v>30650</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009705867524573022</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005437939408979865</v>
+        <v>0.005588587873342299</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01686481534842068</v>
+        <v>0.01629885521009604</v>
       </c>
     </row>
     <row r="27">
@@ -9618,19 +9618,19 @@
         <v>1971671</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1913193</v>
+        <v>1909521</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2037161</v>
+        <v>2034573</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5677796877197493</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5509398870846431</v>
+        <v>0.5498826089938003</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5866387915106742</v>
+        <v>0.5858936444904537</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2840</v>
@@ -9639,19 +9639,19 @@
         <v>2070935</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2015966</v>
+        <v>2009079</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2123563</v>
+        <v>2122690</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.562114562186605</v>
+        <v>0.5621145621866049</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5471943518350034</v>
+        <v>0.5453249688844819</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5763994475272632</v>
+        <v>0.576162557107204</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4616</v>
@@ -9660,19 +9660,19 @@
         <v>4042605</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3963417</v>
+        <v>3952139</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4120112</v>
+        <v>4124691</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5648633811323618</v>
+        <v>0.5648633811323619</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5537987420254536</v>
+        <v>0.5522227862793337</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5756933063489331</v>
+        <v>0.5763331404314258</v>
       </c>
     </row>
     <row r="29">
@@ -9689,19 +9689,19 @@
         <v>1055920</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>994439</v>
+        <v>995575</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1112394</v>
+        <v>1109360</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3040719361581334</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2863674853706725</v>
+        <v>0.2866946449097298</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3203346777433243</v>
+        <v>0.3194611876016393</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1680</v>
@@ -9710,19 +9710,19 @@
         <v>1116045</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1069497</v>
+        <v>1063988</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1166076</v>
+        <v>1164641</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3029284998082274</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2902940037891155</v>
+        <v>0.28879876833433</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3165083506227652</v>
+        <v>0.3161188131625236</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2768</v>
@@ -9731,19 +9731,19 @@
         <v>2171964</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2098256</v>
+        <v>2097355</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2249632</v>
+        <v>2260832</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3034833153164627</v>
+        <v>0.3034833153164628</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2931842416560675</v>
+        <v>0.2930584118060157</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3143357052922003</v>
+        <v>0.3159005879614344</v>
       </c>
     </row>
     <row r="30">
@@ -9760,19 +9760,19 @@
         <v>283833</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>248523</v>
+        <v>249661</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>316930</v>
+        <v>319685</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.08173514937430157</v>
+        <v>0.08173514937430158</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07156682102397302</v>
+        <v>0.07189461582064095</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09126597164780392</v>
+        <v>0.0920592625697926</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>481</v>
@@ -9781,19 +9781,19 @@
         <v>302649</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>275696</v>
+        <v>275454</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>330939</v>
+        <v>334338</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08214812184397308</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07483221387778903</v>
+        <v>0.07476656602016703</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08982694234698692</v>
+        <v>0.09074941377161293</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>773</v>
@@ -9802,19 +9802,19 @@
         <v>586482</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>545293</v>
+        <v>544780</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>631235</v>
+        <v>632327</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.08194774030925375</v>
+        <v>0.08194774030925378</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07619241377900969</v>
+        <v>0.07612074561706242</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08820093889617574</v>
+        <v>0.08835358580677433</v>
       </c>
     </row>
     <row r="31">
@@ -9831,19 +9831,19 @@
         <v>117887</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>98676</v>
+        <v>98985</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>147085</v>
+        <v>138852</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03394782172819653</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02841560409843021</v>
+        <v>0.02850473179761119</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04235594888782706</v>
+        <v>0.03998506804177395</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>218</v>
@@ -9852,19 +9852,19 @@
         <v>146530</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>127934</v>
+        <v>128432</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>169333</v>
+        <v>168492</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03977259688499101</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03472515132939873</v>
+        <v>0.03486046916456351</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04596202179562713</v>
+        <v>0.04573389317983233</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>346</v>
@@ -9873,19 +9873,19 @@
         <v>264417</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>237096</v>
+        <v>235529</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>297308</v>
+        <v>295145</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.03694631312268161</v>
+        <v>0.03694631312268162</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03312882335303906</v>
+        <v>0.03290993161011162</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04154208351471995</v>
+        <v>0.04123984200256264</v>
       </c>
     </row>
     <row r="32">
@@ -9902,19 +9902,19 @@
         <v>43287</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>31251</v>
+        <v>31616</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>57988</v>
+        <v>60356</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01246540501961914</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008999368807221048</v>
+        <v>0.00910446856396542</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01669876605869058</v>
+        <v>0.01738061567335027</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>68</v>
@@ -9923,19 +9923,19 @@
         <v>48028</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37443</v>
+        <v>37835</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62747</v>
+        <v>64135</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01303621927620357</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0101632742269086</v>
+        <v>0.01026954924603531</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01703145926678252</v>
+        <v>0.01740826663737413</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>114</v>
@@ -9944,19 +9944,19 @@
         <v>91315</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>74937</v>
+        <v>74451</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>111699</v>
+        <v>112244</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01275925011924008</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01047072209829321</v>
+        <v>0.01040292743166739</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01560746528104595</v>
+        <v>0.01568359975588867</v>
       </c>
     </row>
     <row r="33">
